--- a/CodeBook.xlsx
+++ b/CodeBook.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
+    <sheet name="Location of Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="506">
   <si>
     <t>people/year</t>
   </si>
@@ -1204,75 +1205,9 @@
     <t>The first date a state declared any type of emergency declaration</t>
   </si>
   <si>
-    <t>The date a state closed daycares statewide</t>
-  </si>
-  <si>
-    <t>The date a state closed K-12 schools statewide</t>
-  </si>
-  <si>
-    <t>The date a state banned visitors to nursing homes statewide</t>
-  </si>
-  <si>
-    <t>The date a state's stay at home/shelter in place order went into effect</t>
-  </si>
-  <si>
-    <t>The date a state ended/relaxed their stay at home/shelter in place order</t>
-  </si>
-  <si>
-    <t>The date a state closed non-essential businesses statewide</t>
-  </si>
-  <si>
-    <t>The date a state began to reopen businesses that were previously closed due to COVID-19 statewide.</t>
-  </si>
-  <si>
-    <t>An indicator of whether or not a state exempted religious gatherings from social distancing mandates. A clear social distancing requirement is defined as a mandate that gatherings must be less than 10 people and/or adherence to CDC social distance guidelines</t>
-  </si>
-  <si>
-    <t>The date a state mandated face mask use in public spaces by all individuals statewide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether any legal encforcement measures of the face mask mandate are present </t>
-  </si>
-  <si>
-    <t>Whether a face mask mandate is enforced through criminal charges/citations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether a face mask mandate is enforced through fines. </t>
-  </si>
-  <si>
-    <t>The date a state mandated that employees in public facing businessses must wear face masks statewide</t>
-  </si>
-  <si>
-    <t>Whether states kept alcohol/liquor stores open during the pandemic</t>
-  </si>
-  <si>
-    <t>The date when states allowed restaurants to sell takeout alchol</t>
-  </si>
-  <si>
-    <t>The date when states allowed restaurants to deliver alchol</t>
-  </si>
-  <si>
-    <t>Whether states kept firearms sellers open</t>
-  </si>
-  <si>
     <t>If states initally closed, then later reopened firearm sellers during the pandemic (not as part of the phased reopening process), they would be indicated as 1</t>
   </si>
   <si>
-    <t>The date when states closed restaurants (except for takeout) statewide</t>
-  </si>
-  <si>
-    <t>Whether restaurants could initially reopen only for outdoor dining as part of the phased reopening process</t>
-  </si>
-  <si>
-    <t>The date states closed indoor gyms/fitness centers statewide</t>
-  </si>
-  <si>
-    <t>The date states closed movie theaters statewide</t>
-  </si>
-  <si>
-    <t>The date states closed bars statewide. Unless otherwide noted, bars are defined as establishments that derive more than 50 percent of gross revenue from the sales of alcoholic beverages</t>
-  </si>
-  <si>
     <t>The date states reopened religious gatherings statewide. If states never closed religious gatherings, they will be marked as 1/0/1990</t>
   </si>
   <si>
@@ -1288,9 +1223,6 @@
     <t>The date states reopened hair salons barber shops statewide. If states never closed hair salons/barber shops, they will be marked as 1/0/1990</t>
   </si>
   <si>
-    <t>The date states reopen bars statewide. Unless otherwide noted, bars are defined as eendblishments that derive more than 50 percent of gross revenue from the sales of alcoholic beverages. If states never closed bars they will be marked as 1/0/1990</t>
-  </si>
-  <si>
     <t>The date states reopened movie theaters statewide. If states never closed movie theaters they will be marked as 1/0/1990.</t>
   </si>
   <si>
@@ -1303,45 +1235,6 @@
     <t xml:space="preserve">The date a state reopened daycares statewide. If a state never closed daycares they will be marked as 1/0/1990. </t>
   </si>
   <si>
-    <t xml:space="preserve">The first date a state reclosed bars after an initial reopening. The closure can be restricted to a city or county, but must be mandated by the governor or state-level agency. If a state never reopened bars they will be marked as 1/0/1990. </t>
-  </si>
-  <si>
-    <t>The date a state reclosed bars statewide after an initial opening. If a state never reopened bars they will be marked as 1/0/1990.</t>
-  </si>
-  <si>
-    <t>The date a state reclosed movie theaters statewide after an initial opening. If a state never reopened movie theaters they will be marked as 1/0/1990.</t>
-  </si>
-  <si>
-    <t>The date a state reclosed indoor  gyms/fitness centers statewide after an initial opening. If a state never reopened indoor  gyms/fitness they will be marked as 1/0/1990.</t>
-  </si>
-  <si>
-    <t>The date a state reclosed indoor dining statewide after an initial opening. If a state never reopened indoor dining they will be marked as 1/0/1990.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The date a state first mandated that individuals arriving in their state from a specific state(s) must undergo quarantine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The date a state first mandated that individuals arriving in their state from any state must undergo quarantine </t>
-  </si>
-  <si>
-    <t>The date a state stopped the initiation of evictions (overall or due to COVID-19 related issues) statewide. This could be mandated from governors or though the state court system.</t>
-  </si>
-  <si>
-    <t>The date a state stopped the enforcement of evictions (overall or due to COVID-19 related issues) statewide. This could be mandated from governors or though the state court system.</t>
-  </si>
-  <si>
-    <t>The date a state allowed a renter grace period or the use of security deposit to pay rent</t>
-  </si>
-  <si>
-    <t>The date a state froze utility shut offs. Utilities could include water, gas, or electricity</t>
-  </si>
-  <si>
-    <t>The date a state froze mortgage payments</t>
-  </si>
-  <si>
-    <t>The date a state ended eviction moratoritum orders, and allowed evictions to resume statewide</t>
-  </si>
-  <si>
     <t>The date a state was approved the use of a waiver to provide many SNAP households with emergency supplementary benefits up to the maximum benefit a household can receive.</t>
   </si>
   <si>
@@ -1363,15 +1256,9 @@
     <t>The date a state reopened ACA enrollment using a Special Enrollment Period (SEP).</t>
   </si>
   <si>
-    <t>Whether a state previously allowed audio-only telehealth</t>
-  </si>
-  <si>
     <t>The date states allowed audio only telehealth statewide. If a state previously allowed audio only telehealth, it will be marked as 1/0/1990</t>
   </si>
   <si>
-    <t xml:space="preserve">The date states allowed or expand Medicaid telehealth coverage statewide. </t>
-  </si>
-  <si>
     <t>Whether a state had a non-payment lock-out period for CHIP as of January 2019. A lock-out period is the amount of time during which the disenrolled child is prohibited from returning to the CHIP program due to non-payment of premiums.</t>
   </si>
   <si>
@@ -1444,21 +1331,6 @@
     <t>The date attorney visitation was banned at prisons statewide. Order could be from the governor or from a state agency like the department of corrections</t>
   </si>
   <si>
-    <t>Before the pandemic, whether a state charged incarcerated individuals medical copays. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/</t>
-  </si>
-  <si>
-    <t>Whether a state waived copays for incarcerated individuals for COVID/respiratory illness related charges. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether a state waived all copays during the pandemic for incarcerated individuals. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/ </t>
-  </si>
-  <si>
-    <t>If a state did not waive copays for incarcerated individuals during the pandemic. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/</t>
-  </si>
-  <si>
-    <t>The date states suspended elective medical dental procedures statewide.</t>
-  </si>
-  <si>
     <t>The date states resumeded statewide. If states never suspended elective medical/dental procedures, they will be marked as 1/0/1990</t>
   </si>
   <si>
@@ -1468,24 +1340,6 @@
     <t>Prior to the pandemic, whether a state did not have a mandatory waiting period until they could receive unemployment insurance benefits, OR whether we could not find whether a state did/did not have a mandatory waiting period</t>
   </si>
   <si>
-    <t>The date a state waived the one week waiting period for unemployment insurance benefits</t>
-  </si>
-  <si>
-    <t>If a state waived the work search requirement for unemployment insurance benefits during the pandemic</t>
-  </si>
-  <si>
-    <t>If a state expanded eligibility of unemployment insurance to anyone who is quarantined and/or taking care of someone who is quarantined during the pandemic</t>
-  </si>
-  <si>
-    <t>If a state expanded eligibility of unemployment insurance to anyone who is at high risk for COVID-19, and is undergoing preventive quarantine during the pandemic</t>
-  </si>
-  <si>
-    <t>If a state expanded eligibility of unemployment insurance to those who have lost childcare during the pandemic in response to daycare/school closures</t>
-  </si>
-  <si>
-    <t>If a state extended the amount of time an individual can be on unemployment insurance</t>
-  </si>
-  <si>
     <t xml:space="preserve">The weekly unemployment insurance maximum amount a state will provide </t>
   </si>
   <si>
@@ -1498,12 +1352,6 @@
     <t>The maximum amount of time an individual can receive unemployment insurance with the Pandemic Emergency Unemployment Compensation CARES extension (weeks)</t>
   </si>
   <si>
-    <t>If a state made an effor through orders or legislation during the pandemic to limit or restrict access to abortion</t>
-  </si>
-  <si>
-    <t>The date a state allowed the use of telemedicine/telephone evaluations to initiate buprenorphine prescribing</t>
-  </si>
-  <si>
     <t>1/0/1900: policy not implemented; valid date range:4/8/2020</t>
   </si>
   <si>
@@ -1559,6 +1407,192 @@
   </si>
   <si>
     <t>1/0/1900: policy not implemented; valid date range: 6/26/2020, 7/14/2020</t>
+  </si>
+  <si>
+    <t>CUSP Database (Google Sheets)</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/statepolicies</t>
+  </si>
+  <si>
+    <t>CUSP Sources</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/statepolicysources</t>
+  </si>
+  <si>
+    <t>CUSP Database (Github)</t>
+  </si>
+  <si>
+    <t>https://github.com/KristenNocka/COVID-19-US-State-Policy-Database</t>
+  </si>
+  <si>
+    <t>CUSP Database (OpenICPSR)</t>
+  </si>
+  <si>
+    <t>https://www.openicpsr.org/openicpsr/project/119446/version/V16/view</t>
+  </si>
+  <si>
+    <t>Codebook</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>The date a state closed K-12 schools statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date a state closed daycares statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date a state banned visitors to nursing homes statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date a state's stay at home/shelter in place order went into effect. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date a state ended/relaxed their stay at home/shelter in place order. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date a state closed non-essential businesses statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date a state began to reopen businesses that were previously closed due to COVID-19 statewide. Order must apply to entire state.</t>
+  </si>
+  <si>
+    <t>An indicator of whether or not a state exempted religious gatherings from social distancing mandates. A clear social distancing requirement is defined as a mandate that gatherings must be less than 10 people and/or adherence to CDC social distance guidelines. Must be statewide.</t>
+  </si>
+  <si>
+    <t>The date a state mandated face mask use in public spaces by all individuals statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>Whether a face mask mandate is enforced through fines. Must apply to entire state.</t>
+  </si>
+  <si>
+    <t>Whether a face mask mandate is enforced through criminal charges/citations. Must apply to entire state.</t>
+  </si>
+  <si>
+    <t>Whether any legal encforcement measures of the face mask mandate are present</t>
+  </si>
+  <si>
+    <t>The date a state mandated that employees in public facing businessses must wear face masks statewide.  Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>Whether states kept alcohol/liquor stores open during the pandemic. Must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date when states allowed restaurants to sell takeout alchol.  Must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date when states allowed restaurants to deliver alchol.  Must apply to entire state</t>
+  </si>
+  <si>
+    <t>Whether states kept firearms sellers open. Must apply to entire state.</t>
+  </si>
+  <si>
+    <t>The date when states closed restaurants (except for takeout). Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>Whether restaurants could initially reopen only for outdoor dining as part of the phased reopening process.  Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date states closed indoor gyms/fitness centers.  Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date states closed movie theaters.  Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date states closed bars statewide. Unless otherwide noted, bars are defined as establishments that derive more than 50 percent of gross revenue from the sales of alcoholic beverages.  Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>The date states reopen bars statewide. Unless otherwide noted, bars are defined as establishments that derive more than 50 percent of gross revenue from the sales of alcoholic beverages. If states never closed bars they will be marked as 1/0/1990</t>
+  </si>
+  <si>
+    <t>The date a state reclosed bars statewide after an initial opening.  Did not include guidance or recommendations. If a state never reopened bars they will be marked as 1/0/1990.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first date a state reclosed bars after an initial reopening. The closure can be restricted to a city or county, but must be mandated by the governor or state-level agency.  Did not include guidance or recommendations. If a state never reopened bars they will be marked as 1/0/1990. </t>
+  </si>
+  <si>
+    <t>The date a state reclosed movie theaters statewide after an initial opening.  Did not include guidance or recommendations. If a state never reopened movie theaters they will be marked as 1/0/1990.</t>
+  </si>
+  <si>
+    <t>The date a state reclosed indoor  gyms/fitness centers statewide after an initial opening.  Did not include guidance or recommendations. If a state never reopened indoor  gyms/fitness they will be marked as 1/0/1990.</t>
+  </si>
+  <si>
+    <t>The date a state reclosed indoor dining statewide after an initial opening.  Did not include guidance or recommendations. If a state never reopened indoor dining they will be marked as 1/0/1990.</t>
+  </si>
+  <si>
+    <t>The date a state first mandated that individuals arriving in their state from a specific state(s) must undergo quarantine.  Did not include guidance or recommendations. Order must apply to entire state. Quarantine order must apply to visitors using all forms of transportation to enter the state (not just air travel)</t>
+  </si>
+  <si>
+    <t>The date a state first mandated that individuals arriving in their state from any state must undergo quarantine.  Did not include guidance or recommendations. Order must apply to entire state. Quarantine order must apply to visitors using all forms of transportation to enter the state (not just air travel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state stopped the initiation of evictions (overall or due to COVID-19 related issues) statewide. This could be mandated from governors or though the state court system. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state stopped the enforcement of evictions (overall or due to COVID-19 related issues) statewide. This could be mandated from governors or though the state court system. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state allowed a renter grace period or the use of security deposit to pay rent. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state froze utility shut offs. Utilities could include water, gas, or electricity. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state froze mortgage payments. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state ended eviction moratoritum orders, and allowed evictions to resume statewide. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether a state previously allowed audio-only telehealth </t>
+  </si>
+  <si>
+    <t>The date states allowed or expand Medicaid telehealth coverage statewide in response to the pandemic</t>
+  </si>
+  <si>
+    <t>Before the pandemic, whether a state charged incarcerated individuals medical copays statewide. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/</t>
+  </si>
+  <si>
+    <t>Whether a state waived copays for incarcerated individuals for COVID/respiratory illness related charges statewide. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether a state waived all copays during the pandemic for incarcerated individuals statewide. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/ </t>
+  </si>
+  <si>
+    <t>If a state did not waive copays for incarcerated individuals during the pandemic statewide. Source: Prison Policy Initiative https://www.prisonpolicy.org/blog/2017/04/19/copays/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date states suspended elective medical dental procedures statewide. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state waived the one week waiting period for unemployment insurance benefits. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state waived the work search requirement for unemployment insurance benefits during the pandemic. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state expanded eligibility of unemployment insurance to anyone who is quarantined and/or taking care of someone who is quarantined during the pandemic. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state expanded eligibility of unemployment insurance to anyone who is at high risk for COVID-19, and is undergoing preventive quarantine during the pandemic. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state expanded eligibility of unemployment insurance to those who have lost childcare during the pandemic in response to daycare/school closures. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state extended the amount of time an individual can be on unemployment insurance. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state made an effor through orders or legislation during the pandemic to limit or restrict access to abortion. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date a state allowed the use of telemedicine/telephone evaluations to initiate buprenorphine prescribing. </t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1758,6 +1792,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2041,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -2191,7 +2226,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
@@ -2210,7 +2245,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>252</v>
       </c>
@@ -2218,7 +2253,7 @@
         <v>139</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>31</v>
@@ -2245,7 +2280,7 @@
         <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
@@ -2262,7 +2297,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>250</v>
       </c>
@@ -2270,7 +2305,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -2289,7 +2324,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>249</v>
       </c>
@@ -2297,7 +2332,7 @@
         <v>136</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>29</v>
@@ -2316,7 +2351,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>248</v>
       </c>
@@ -2324,7 +2359,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>29</v>
@@ -2343,7 +2378,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>247</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>30</v>
@@ -2378,7 +2413,7 @@
         <v>133</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
@@ -2397,7 +2432,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>245</v>
       </c>
@@ -2405,7 +2440,7 @@
         <v>132</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>29</v>
@@ -2424,7 +2459,7 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>244</v>
       </c>
@@ -2432,7 +2467,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
@@ -2444,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="19" t="s">
@@ -2459,7 +2494,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>387</v>
+        <v>464</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
@@ -2478,7 +2513,7 @@
       </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>242</v>
       </c>
@@ -2486,7 +2521,7 @@
         <v>129</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
@@ -2513,7 +2548,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
@@ -2532,7 +2567,7 @@
       </c>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>240</v>
       </c>
@@ -2540,7 +2575,7 @@
         <v>127</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>28</v>
@@ -2557,7 +2592,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>239</v>
       </c>
@@ -2565,7 +2600,7 @@
         <v>126</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>27</v>
@@ -2592,7 +2627,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>27</v>
@@ -2617,7 +2652,7 @@
         <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>27</v>
@@ -2642,7 +2677,7 @@
         <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>27</v>
@@ -2660,10 +2695,10 @@
         <v>294</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>235</v>
       </c>
@@ -2671,7 +2706,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>26</v>
@@ -2696,7 +2731,7 @@
         <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>25</v>
@@ -2713,7 +2748,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>233</v>
       </c>
@@ -2721,7 +2756,7 @@
         <v>120</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>25</v>
@@ -2740,7 +2775,7 @@
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>232</v>
       </c>
@@ -2748,7 +2783,7 @@
         <v>119</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>26</v>
@@ -2773,7 +2808,7 @@
         <v>118</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -2790,7 +2825,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>230</v>
       </c>
@@ -2798,7 +2833,7 @@
         <v>117</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>26</v>
@@ -2823,7 +2858,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>25</v>
@@ -2840,7 +2875,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="19"/>
     </row>
-    <row r="31" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>228</v>
       </c>
@@ -2848,7 +2883,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>26</v>
@@ -2873,7 +2908,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>25</v>
@@ -2898,7 +2933,7 @@
         <v>113</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>25</v>
@@ -2923,7 +2958,7 @@
         <v>112</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>25</v>
@@ -2948,7 +2983,7 @@
         <v>111</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>25</v>
@@ -2973,7 +3008,7 @@
         <v>110</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>25</v>
@@ -2992,7 +3027,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>222</v>
       </c>
@@ -3000,7 +3035,7 @@
         <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>24</v>
@@ -3012,14 +3047,14 @@
         <v>4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>221</v>
       </c>
@@ -3027,7 +3062,7 @@
         <v>108</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>24</v>
@@ -3046,7 +3081,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>220</v>
       </c>
@@ -3054,7 +3089,7 @@
         <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>24</v>
@@ -3073,7 +3108,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>219</v>
       </c>
@@ -3081,7 +3116,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>24</v>
@@ -3100,7 +3135,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="65" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>324</v>
       </c>
@@ -3108,7 +3143,7 @@
         <v>325</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>24</v>
@@ -3125,7 +3160,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>218</v>
       </c>
@@ -3133,7 +3168,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>23</v>
@@ -3152,7 +3187,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="104" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>217</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>104</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>23</v>
@@ -3177,7 +3212,7 @@
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>216</v>
       </c>
@@ -3185,7 +3220,7 @@
         <v>103</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>22</v>
@@ -3202,7 +3237,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="91" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>215</v>
       </c>
@@ -3210,7 +3245,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>22</v>
@@ -3227,7 +3262,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>214</v>
       </c>
@@ -3235,7 +3270,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>22</v>
@@ -3252,7 +3287,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>213</v>
       </c>
@@ -3260,7 +3295,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>22</v>
@@ -3279,7 +3314,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>212</v>
       </c>
@@ -3287,7 +3322,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>22</v>
@@ -3312,7 +3347,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>22</v>
@@ -3337,7 +3372,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>21</v>
@@ -3364,7 +3399,7 @@
         <v>96</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>21</v>
@@ -3391,7 +3426,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -3418,7 +3453,7 @@
         <v>94</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>21</v>
@@ -3436,7 +3471,7 @@
         <v>294</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="39" x14ac:dyDescent="0.35">
@@ -3447,7 +3482,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>17</v>
@@ -3474,7 +3509,7 @@
         <v>92</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>17</v>
@@ -3499,7 +3534,7 @@
         <v>91</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>17</v>
@@ -3528,7 +3563,7 @@
         <v>90</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
@@ -3545,7 +3580,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="19"/>
     </row>
-    <row r="58" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>202</v>
       </c>
@@ -3553,7 +3588,7 @@
         <v>89</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>17</v>
@@ -3578,7 +3613,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>17</v>
@@ -3607,7 +3642,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>17</v>
@@ -3636,7 +3671,7 @@
         <v>86</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>20</v>
@@ -3663,7 +3698,7 @@
         <v>85</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>20</v>
@@ -3690,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>20</v>
@@ -3717,7 +3752,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
@@ -3744,7 +3779,7 @@
         <v>82</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>20</v>
@@ -3771,7 +3806,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>20</v>
@@ -3798,7 +3833,7 @@
         <v>80</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>20</v>
@@ -3825,7 +3860,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>20</v>
@@ -3852,7 +3887,7 @@
         <v>78</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>20</v>
@@ -3879,7 +3914,7 @@
         <v>77</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>20</v>
@@ -3906,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>20</v>
@@ -3933,7 +3968,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>20</v>
@@ -3960,7 +3995,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>20</v>
@@ -3987,7 +4022,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>20</v>
@@ -4014,7 +4049,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>20</v>
@@ -4041,7 +4076,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>20</v>
@@ -4068,7 +4103,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>20</v>
@@ -4095,7 +4130,7 @@
         <v>69</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>20</v>
@@ -4122,7 +4157,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>20</v>
@@ -4149,7 +4184,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>20</v>
@@ -4176,7 +4211,7 @@
         <v>66</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>19</v>
@@ -4201,7 +4236,7 @@
         <v>65</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>19</v>
@@ -4226,7 +4261,7 @@
         <v>64</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>19</v>
@@ -4255,7 +4290,7 @@
         <v>63</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>19</v>
@@ -4284,7 +4319,7 @@
         <v>62</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>19</v>
@@ -4313,7 +4348,7 @@
         <v>61</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>19</v>
@@ -4334,7 +4369,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>173</v>
       </c>
@@ -4342,7 +4377,7 @@
         <v>60</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>17</v>
@@ -4364,10 +4399,10 @@
         <v>172</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>17</v>
@@ -4392,7 +4427,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>18</v>
@@ -4411,7 +4446,7 @@
       </c>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>170</v>
       </c>
@@ -4419,7 +4454,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>18</v>
@@ -4438,7 +4473,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>169</v>
       </c>
@@ -4446,7 +4481,7 @@
         <v>57</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>18</v>
@@ -4465,7 +4500,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>168</v>
       </c>
@@ -4473,7 +4508,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>18</v>
@@ -4494,7 +4529,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>167</v>
       </c>
@@ -4502,7 +4537,7 @@
         <v>55</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>18</v>
@@ -4523,7 +4558,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>166</v>
       </c>
@@ -4531,7 +4566,7 @@
         <v>54</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>18</v>
@@ -4552,7 +4587,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>165</v>
       </c>
@@ -4560,7 +4595,7 @@
         <v>53</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>18</v>
@@ -4589,7 +4624,7 @@
         <v>52</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>18</v>
@@ -4616,7 +4651,7 @@
         <v>51</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>18</v>
@@ -4643,7 +4678,7 @@
         <v>50</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>18</v>
@@ -4667,7 +4702,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>18</v>
@@ -4684,7 +4719,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="19"/>
     </row>
-    <row r="100" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>160</v>
       </c>
@@ -4692,7 +4727,7 @@
         <v>48</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>17</v>
@@ -4719,7 +4754,7 @@
         <v>47</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>16</v>
@@ -4746,7 +4781,7 @@
         <v>46</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>16</v>
@@ -4771,7 +4806,7 @@
         <v>45</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>16</v>
@@ -4796,7 +4831,7 @@
         <v>44</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>16</v>
@@ -4821,7 +4856,7 @@
         <v>43</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>16</v>
@@ -4846,7 +4881,7 @@
         <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>16</v>
@@ -4858,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="19"/>
@@ -4871,7 +4906,7 @@
         <v>41</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>492</v>
+        <v>441</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>15</v>
@@ -4900,7 +4935,7 @@
         <v>40</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>15</v>
@@ -4929,7 +4964,7 @@
         <v>39</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>14</v>
@@ -4954,7 +4989,7 @@
         <v>38</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>13</v>
@@ -4981,7 +5016,7 @@
         <v>37</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>13</v>
@@ -5006,7 +5041,7 @@
         <v>36</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>13</v>
@@ -5030,10 +5065,10 @@
         <v>147</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>13</v>
@@ -5057,10 +5092,10 @@
         <v>146</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>13</v>
@@ -5087,7 +5122,7 @@
         <v>35</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>13</v>
@@ -5114,7 +5149,7 @@
         <v>34</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>13</v>
@@ -5148,4 +5183,78 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/CodeBook.xlsx
+++ b/CodeBook.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="522">
   <si>
     <t>people/year</t>
   </si>
@@ -1025,9 +1025,6 @@
     <t>1/0/1900: policy not implemented; valid date range: 5/1/2020, 6/29/2020</t>
   </si>
   <si>
-    <t>1/0/1900: policy not implemented; valid date range: 4/24/2020, 7/3/2020</t>
-  </si>
-  <si>
     <t>1/0/1900: policy not implemented; valid date range: 4/28/2020, 6/8/2020</t>
   </si>
   <si>
@@ -1403,9 +1400,6 @@
     <t>If a state previously mandated paid sick leave. Source: https://www.zenefits.com/workest/the-definitive-list-of-states-and-cities-with-paid-sick-leave-laws/. Often depends on business size.</t>
   </si>
   <si>
-    <t>1/0/1900: policy not implemented; valid date range: 4/8/2020, 7/16/2020</t>
-  </si>
-  <si>
     <t>1/0/1900: policy not implemented; valid date range: 6/26/2020, 7/14/2020</t>
   </si>
   <si>
@@ -1593,13 +1587,67 @@
   </si>
   <si>
     <t xml:space="preserve">The date a state allowed the use of telemedicine/telephone evaluations to initiate buprenorphine prescribing. </t>
+  </si>
+  <si>
+    <t>Report COVID testing for American Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>Report positive COVID tests for Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>Report COVID hospitalizations for Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>Report COVID deaths for Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>State has at least one Indian/Alaska Native reservation</t>
+  </si>
+  <si>
+    <t>TST_AIAN</t>
+  </si>
+  <si>
+    <t>TST2_AIAN</t>
+  </si>
+  <si>
+    <t>HOSPAIAN</t>
+  </si>
+  <si>
+    <t>DTH_AIAN</t>
+  </si>
+  <si>
+    <t>AIANRESN</t>
+  </si>
+  <si>
+    <t>If state reports data on COVID deaths for American Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>If state reports data on COVID hospitalizations for American Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>If state reports data on positive COVID testing for American Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>If state reports data on COVID testing for American Indian/Alaska Native individuals</t>
+  </si>
+  <si>
+    <t>Whether a state has at least one Indian/Alaska Native Reservation</t>
+  </si>
+  <si>
+    <t>1/0/1900: policy not implemented; valid date range: 6/26/2020, 7/16/2020</t>
+  </si>
+  <si>
+    <t>1/0/1900: policy not implemented; valid date range: 4/24/2020, 7/21/2020</t>
+  </si>
+  <si>
+    <t>1/0/1900: policy not implemented; valid date range: 4/8/2020, 7/27/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1668,6 +1716,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1689,7 +1743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1712,12 +1766,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1793,6 +1860,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2074,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -2100,7 +2171,7 @@
         <v>291</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>259</v>
@@ -2129,7 +2200,7 @@
         <v>143</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>261</v>
@@ -2149,7 +2220,7 @@
         <v>142</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>261</v>
@@ -2169,28 +2240,28 @@
     </row>
     <row r="4" spans="1:9" ht="338" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.35">
@@ -2201,7 +2272,7 @@
         <v>141</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>33</v>
@@ -2226,7 +2297,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
@@ -2253,7 +2324,7 @@
         <v>139</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>31</v>
@@ -2280,7 +2351,7 @@
         <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
@@ -2305,7 +2376,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -2321,7 +2392,7 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="65" x14ac:dyDescent="0.35">
@@ -2332,7 +2403,7 @@
         <v>136</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>29</v>
@@ -2348,7 +2419,7 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="39" x14ac:dyDescent="0.35">
@@ -2359,7 +2430,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>29</v>
@@ -2386,7 +2457,7 @@
         <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>30</v>
@@ -2402,7 +2473,7 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.35">
@@ -2413,7 +2484,7 @@
         <v>133</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
@@ -2429,7 +2500,7 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="91" x14ac:dyDescent="0.35">
@@ -2440,7 +2511,7 @@
         <v>132</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>29</v>
@@ -2467,7 +2538,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
@@ -2479,11 +2550,11 @@
         <v>4</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.35">
@@ -2494,7 +2565,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
@@ -2521,7 +2592,7 @@
         <v>129</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
@@ -2548,7 +2619,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
@@ -2575,7 +2646,7 @@
         <v>127</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>28</v>
@@ -2600,7 +2671,7 @@
         <v>126</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>27</v>
@@ -2627,7 +2698,7 @@
         <v>125</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>27</v>
@@ -2652,7 +2723,7 @@
         <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>27</v>
@@ -2677,7 +2748,7 @@
         <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>27</v>
@@ -2695,7 +2766,7 @@
         <v>294</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="52" x14ac:dyDescent="0.35">
@@ -2706,7 +2777,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>26</v>
@@ -2731,7 +2802,7 @@
         <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>25</v>
@@ -2756,7 +2827,7 @@
         <v>120</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>25</v>
@@ -2783,7 +2854,7 @@
         <v>119</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>26</v>
@@ -2808,7 +2879,7 @@
         <v>118</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -2833,7 +2904,7 @@
         <v>117</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>26</v>
@@ -2858,7 +2929,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>25</v>
@@ -2883,7 +2954,7 @@
         <v>115</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>26</v>
@@ -2908,7 +2979,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>25</v>
@@ -2933,7 +3004,7 @@
         <v>113</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>25</v>
@@ -2945,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="19"/>
@@ -2958,7 +3029,7 @@
         <v>112</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>25</v>
@@ -2970,7 +3041,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="19"/>
@@ -2983,7 +3054,7 @@
         <v>111</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>25</v>
@@ -3008,7 +3079,7 @@
         <v>110</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>25</v>
@@ -3020,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="19" t="s">
@@ -3035,7 +3106,7 @@
         <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>24</v>
@@ -3047,7 +3118,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="19" t="s">
@@ -3062,7 +3133,7 @@
         <v>108</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>24</v>
@@ -3074,7 +3145,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>319</v>
+        <v>519</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="19" t="s">
@@ -3089,7 +3160,7 @@
         <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>24</v>
@@ -3101,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="20" t="s">
@@ -3116,7 +3187,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>24</v>
@@ -3128,7 +3199,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="20" t="s">
@@ -3137,13 +3208,13 @@
     </row>
     <row r="41" spans="1:9" ht="65" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="C41" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>24</v>
@@ -3155,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="20"/>
@@ -3168,7 +3239,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>23</v>
@@ -3180,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="19" t="s">
@@ -3195,7 +3266,7 @@
         <v>104</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>23</v>
@@ -3207,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -3220,7 +3291,7 @@
         <v>103</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>22</v>
@@ -3232,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="19"/>
@@ -3245,7 +3316,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>22</v>
@@ -3257,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="19"/>
@@ -3270,7 +3341,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>22</v>
@@ -3282,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="19"/>
@@ -3295,7 +3366,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>22</v>
@@ -3307,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="19" t="s">
@@ -3322,7 +3393,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>22</v>
@@ -3334,7 +3405,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="19"/>
@@ -3347,7 +3418,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>22</v>
@@ -3359,7 +3430,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="19"/>
@@ -3372,7 +3443,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>21</v>
@@ -3384,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="19" t="s">
@@ -3399,7 +3470,7 @@
         <v>96</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>21</v>
@@ -3411,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="21" t="s">
@@ -3426,7 +3497,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -3438,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="19" t="s">
@@ -3453,7 +3524,7 @@
         <v>94</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>21</v>
@@ -3471,7 +3542,7 @@
         <v>294</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="39" x14ac:dyDescent="0.35">
@@ -3482,7 +3553,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>17</v>
@@ -3494,7 +3565,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="19" t="s">
@@ -3509,7 +3580,7 @@
         <v>92</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>17</v>
@@ -3521,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="19"/>
@@ -3534,7 +3605,7 @@
         <v>91</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>17</v>
@@ -3563,7 +3634,7 @@
         <v>90</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
@@ -3575,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="19"/>
@@ -3588,7 +3659,7 @@
         <v>89</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>17</v>
@@ -3600,7 +3671,7 @@
         <v>4</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="19"/>
@@ -3613,7 +3684,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>17</v>
@@ -3642,7 +3713,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>17</v>
@@ -3671,7 +3742,7 @@
         <v>86</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>20</v>
@@ -3698,7 +3769,7 @@
         <v>85</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>20</v>
@@ -3725,7 +3796,7 @@
         <v>84</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>20</v>
@@ -3752,7 +3823,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
@@ -3779,7 +3850,7 @@
         <v>82</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>20</v>
@@ -3806,7 +3877,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>20</v>
@@ -3833,7 +3904,7 @@
         <v>80</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>20</v>
@@ -3860,7 +3931,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>20</v>
@@ -3887,7 +3958,7 @@
         <v>78</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>20</v>
@@ -3914,7 +3985,7 @@
         <v>77</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>20</v>
@@ -3941,7 +4012,7 @@
         <v>76</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>20</v>
@@ -3968,7 +4039,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>20</v>
@@ -3995,7 +4066,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>20</v>
@@ -4022,7 +4093,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>20</v>
@@ -4049,7 +4120,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>20</v>
@@ -4076,7 +4147,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>20</v>
@@ -4103,7 +4174,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>20</v>
@@ -4130,7 +4201,7 @@
         <v>69</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>20</v>
@@ -4157,7 +4228,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>20</v>
@@ -4184,7 +4255,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>20</v>
@@ -4203,73 +4274,77 @@
       </c>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" ht="52" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="H81" s="6"/>
+    <row r="81" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A81" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" ht="52" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H82" s="6"/>
+    <row r="82" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A82" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" ht="65" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="6" t="s">
+    <row r="83" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A83" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -4278,27 +4353,25 @@
       <c r="H83" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I83" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="78" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="6" t="s">
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A84" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
@@ -4307,27 +4380,25 @@
       <c r="H84" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I84" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="65" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="I84" s="19"/>
+    </row>
+    <row r="85" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A85" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -4336,51 +4407,45 @@
       <c r="H85" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I85" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+      <c r="I85" s="19"/>
+    </row>
+    <row r="86" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>496</v>
+        <v>179</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>279</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>60</v>
+        <v>178</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>497</v>
+        <v>416</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>10</v>
@@ -4389,48 +4454,52 @@
         <v>4</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>418</v>
+        <v>64</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>9</v>
@@ -4444,47 +4513,51 @@
       <c r="H89" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+      <c r="I89" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>498</v>
+        <v>62</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="19" t="s">
-        <v>280</v>
+        <v>3</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>9</v>
@@ -4498,75 +4571,69 @@
       <c r="H91" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I91" s="20"/>
-    </row>
-    <row r="92" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+      <c r="I91" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>500</v>
+        <v>173</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I92" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>501</v>
+        <v>418</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I93" s="20" t="s">
-        <v>281</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>502</v>
+        <v>419</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>18</v>
@@ -4583,48 +4650,44 @@
       <c r="H94" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I94" s="20" t="s">
-        <v>281</v>
-      </c>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>503</v>
+        <v>58</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I95" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>18</v>
@@ -4641,247 +4704,263 @@
       <c r="H96" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I96" s="19"/>
-    </row>
-    <row r="97" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H97" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="I97" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>423</v>
+        <v>55</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="78" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>424</v>
+        <v>54</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="H99" s="6"/>
-      <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>504</v>
+        <v>53</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>501</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>505</v>
+        <v>420</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>346</v>
+        <v>3</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>294</v>
       </c>
       <c r="I101" s="19"/>
     </row>
-    <row r="102" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>426</v>
+        <v>51</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>347</v>
+        <v>7</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="H102" s="6"/>
-      <c r="I102" s="19"/>
+      <c r="I102" s="20" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>348</v>
+        <v>7</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="H103" s="6"/>
-      <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:9" ht="52" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>349</v>
+        <v>6</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>350</v>
+        <v>6</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="H105" s="6"/>
-      <c r="I105" s="19"/>
+      <c r="I105" s="25" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>430</v>
+        <v>47</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>503</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>16</v>
@@ -4893,236 +4972,230 @@
         <v>4</v>
       </c>
       <c r="G106" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I106" s="19"/>
+    </row>
+    <row r="107" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A107" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="H106" s="6"/>
-      <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:9" ht="65" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I107" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H107" s="6"/>
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>440</v>
+        <v>157</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I108" s="19" t="s">
-        <v>285</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H108" s="6"/>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>39</v>
+        <v>156</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>351</v>
+        <v>4</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>38</v>
+        <v>155</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>353</v>
+        <v>4</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="H110" s="6"/>
-      <c r="I110" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:9" ht="39" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>37</v>
+        <v>154</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>356</v>
+        <v>4</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="19"/>
     </row>
     <row r="112" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>434</v>
+        <v>41</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H112" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="I112" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>436</v>
+        <v>152</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>439</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H113" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="I113" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>437</v>
+        <v>151</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H114" s="6"/>
-      <c r="I114" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+      <c r="I114" s="19"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>35</v>
+        <v>150</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>13</v>
@@ -5131,25 +5204,25 @@
         <v>8</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>13</v>
@@ -5158,28 +5231,161 @@
         <v>8</v>
       </c>
       <c r="F116" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H116" s="6"/>
+      <c r="I116" s="19"/>
+    </row>
+    <row r="117" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H117" s="6"/>
+      <c r="I117" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="52" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H118" s="6"/>
+      <c r="I118" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="65" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H119" s="6"/>
+      <c r="I119" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="78" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H120" s="6"/>
+      <c r="I120" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="39" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="19" t="s">
+      <c r="G121" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I83" r:id="rId1" display="https://www.prisonpolicy.org/blog/2017/04/19/copays/"/>
-    <hyperlink ref="I84" r:id="rId2" display="https://www.prisonpolicy.org/virus/virusresponse.html"/>
-    <hyperlink ref="I85" r:id="rId3" display="https://www.prisonpolicy.org/virus/virusresponse.html"/>
-    <hyperlink ref="I86" r:id="rId4" display="https://www.prisonpolicy.org/virus/virusresponse.html"/>
+    <hyperlink ref="I88" r:id="rId1" display="https://www.prisonpolicy.org/blog/2017/04/19/copays/"/>
+    <hyperlink ref="I89" r:id="rId2" display="https://www.prisonpolicy.org/virus/virusresponse.html"/>
+    <hyperlink ref="I90" r:id="rId3" display="https://www.prisonpolicy.org/virus/virusresponse.html"/>
+    <hyperlink ref="I91" r:id="rId4" display="https://www.prisonpolicy.org/virus/virusresponse.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5200,50 +5406,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
